--- a/Calculs/DataBase_PH2_FileA_V1.xlsx
+++ b/Calculs/DataBase_PH2_FileA_V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FDEBD5-4EF1-4723-A295-0FDCCD9F52F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{67FDEBD5-4EF1-4723-A295-0FDCCD9F52F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF248D9-143A-4F45-9623-AC5859DF118D}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1060,12 +1060,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A60" activeCellId="7" sqref="A2:XFD2 A6:XFD6 A13:XFD13 A18:XFD18 A30:XFD30 A42:XFD42 A54:XFD54 A60:XFD60"/>
+      <selection pane="topRight" activeCell="A32" sqref="A32:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1219,15 +1219,15 @@
         <v>14.684999999999999</v>
       </c>
       <c r="W2" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" ref="X2:X23" si="0">U2*(1-W2)</f>
-        <v>24.172499999999999</v>
+        <v>48.344999999999999</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" ref="Y2:Y23" si="1">U2*W2 + V2</f>
-        <v>38.857500000000002</v>
+        <v>14.684999999999999</v>
       </c>
       <c r="Z2" s="4">
         <v>82.5</v>
@@ -1240,7 +1240,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1308,15 +1308,15 @@
         <v>9.3414400000000004</v>
       </c>
       <c r="W3" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>15.37664</v>
+        <v>30.75328</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="1"/>
-        <v>24.71808</v>
+        <v>9.3414400000000004</v>
       </c>
       <c r="Z3" s="4">
         <v>52.480000000000004</v>
@@ -1329,7 +1329,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1397,15 +1397,15 @@
         <v>0.1958</v>
       </c>
       <c r="W4" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>0.48345000000000005</v>
+        <v>0.64460000000000006</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="1"/>
-        <v>0.35694999999999999</v>
+        <v>0.1958</v>
       </c>
       <c r="Z4" s="4">
         <v>1.1000000000000001</v>
@@ -1418,7 +1418,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1486,15 +1486,15 @@
         <v>7.7465600000000006</v>
       </c>
       <c r="W5" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>12.75136</v>
+        <v>25.50272</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>20.497920000000001</v>
+        <v>7.7465600000000006</v>
       </c>
       <c r="Z5" s="4">
         <v>43.52</v>
@@ -1507,7 +1507,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1575,15 +1575,15 @@
         <v>17.622000000000003</v>
       </c>
       <c r="W6" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>29.007000000000001</v>
+        <v>58.014000000000003</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>46.629000000000005</v>
+        <v>17.622000000000003</v>
       </c>
       <c r="Z6" s="4">
         <v>99.000000000000014</v>
@@ -1596,7 +1596,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1664,15 +1664,15 @@
         <v>11.391999999999999</v>
       </c>
       <c r="W7" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>28.128</v>
+        <v>37.503999999999998</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="1"/>
-        <v>20.768000000000001</v>
+        <v>11.391999999999999</v>
       </c>
       <c r="Z7" s="4">
         <v>64</v>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AL9" s="2"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="AL12" s="2"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2284,15 +2284,15 @@
         <v>2.2784</v>
       </c>
       <c r="W14" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="0"/>
-        <v>3.7504</v>
+        <v>7.5007999999999999</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>6.0288000000000004</v>
+        <v>2.2784</v>
       </c>
       <c r="Z14" s="4">
         <v>12.8</v>
@@ -2305,7 +2305,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2373,15 +2373,15 @@
         <v>8.2022399999999998</v>
       </c>
       <c r="W15" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="0"/>
-        <v>13.501439999999999</v>
+        <v>27.002879999999998</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>21.703679999999999</v>
+        <v>8.2022399999999998</v>
       </c>
       <c r="Z15" s="4">
         <v>46.08</v>
@@ -2394,7 +2394,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2462,15 +2462,15 @@
         <v>27.411999999999999</v>
       </c>
       <c r="W16" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="0"/>
-        <v>67.682999999999993</v>
+        <v>90.244</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>49.972999999999999</v>
+        <v>27.411999999999999</v>
       </c>
       <c r="Z16" s="4">
         <v>154</v>
@@ -2478,11 +2478,11 @@
       <c r="AA16" s="4"/>
       <c r="AB16">
         <f t="shared" si="2"/>
-        <v>117.65599999999999</v>
+        <v>117.65600000000001</v>
       </c>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="AL18" s="2"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="AL19" s="2"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="AL20" s="2"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="AL21" s="2"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="AL22" s="2"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="AL23" s="2"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>109.252</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>36.183039999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>32.271360000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>121.858</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>74.321919999999992</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>109.252</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>9.7791999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>33.616</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>9.7791999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3949,15 +3949,15 @@
         <v>24.474999999999998</v>
       </c>
       <c r="W33" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="3"/>
-        <v>80.574999999999989</v>
+        <v>60.431249999999991</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="4"/>
-        <v>24.474999999999998</v>
+        <v>44.618749999999991</v>
       </c>
       <c r="Z33" s="4">
         <v>137.5</v>
@@ -3968,7 +3968,7 @@
         <v>105.04999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4036,15 +4036,15 @@
         <v>15.493120000000001</v>
       </c>
       <c r="W34" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="3"/>
-        <v>51.00544</v>
+        <v>25.50272</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="4"/>
-        <v>15.493120000000001</v>
+        <v>40.995840000000001</v>
       </c>
       <c r="Z34" s="4">
         <v>87.04</v>
@@ -4055,7 +4055,7 @@
         <v>66.498559999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -4123,15 +4123,15 @@
         <v>23.495999999999999</v>
       </c>
       <c r="W35" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="3"/>
-        <v>77.35199999999999</v>
+        <v>38.675999999999995</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="4"/>
-        <v>23.495999999999999</v>
+        <v>62.171999999999997</v>
       </c>
       <c r="Z35" s="4">
         <v>132</v>
@@ -4142,7 +4142,7 @@
         <v>100.84799999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4210,15 +4210,15 @@
         <v>7.5187200000000001</v>
       </c>
       <c r="W36" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="3"/>
-        <v>24.75264</v>
+        <v>12.37632</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="4"/>
-        <v>7.5187200000000001</v>
+        <v>19.895040000000002</v>
       </c>
       <c r="Z36" s="4">
         <v>42.24</v>
@@ -4229,7 +4229,7 @@
         <v>32.271360000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>31.293439999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>130.262</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>80.189440000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>113.45400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>4.8895999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>25.211999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>9.7791999999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>92.444000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>58.675199999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>73.114800000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>24.448</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>36.183039999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>109.252</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>63.564800000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>39.116799999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>42.02</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>39.116799999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>105.04999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
